--- a/Unlabelled_Shortened_Data.xlsx
+++ b/Unlabelled_Shortened_Data.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinkapner/Documents/Masters/Classes/Computational_Bio/Project/Code/Comp167TempoProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE47CA-2485-6E46-9018-5EC4BD5E7F46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C5A88-3246-464F-8EC6-FDE1C42AC37D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="27640" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,7 +858,7 @@
   <dimension ref="A1:CO299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
